--- a/finished.xlsx
+++ b/finished.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/aperkin_student_unimelb_edu_au/Documents/Desktop/Nerd Central/Lucent-Studio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonk4\Desktop\Coding\Web Dev\Lucent Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DB114E441178AC67DF4BD1652C6E0693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162DD046-5F62-4B8C-8B65-45BF6FC5EEBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD8B24-F1E6-48D5-9ACD-CCA8B68AE67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="-1972" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
   <si>
     <t>Nillumbik Osteopathic Health Centre</t>
   </si>
@@ -206,16 +206,324 @@
   </si>
   <si>
     <t>info@evercaredental.com.au</t>
+  </si>
+  <si>
+    <t>reception@researchdental.com.au</t>
+  </si>
+  <si>
+    <t>1550 Main Rd, Research VIC 3095</t>
+  </si>
+  <si>
+    <t>8:30 am-5:30 pm</t>
+  </si>
+  <si>
+    <t>(03) 9437 0047</t>
+  </si>
+  <si>
+    <t>https://researchdental.net/</t>
+  </si>
+  <si>
+    <t>Research Dental</t>
+  </si>
+  <si>
+    <t>info@chillortho.com.au</t>
+  </si>
+  <si>
+    <t>1160 Main Rd, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>(03) 9431 5992</t>
+  </si>
+  <si>
+    <t>https://elthamorthodontics.com.au/</t>
+  </si>
+  <si>
+    <t>Eltham Orthodontics</t>
+  </si>
+  <si>
+    <t>healthwiseosteopathy@gmail.com</t>
+  </si>
+  <si>
+    <t>3/286 Bolton St, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>2-8 pm</t>
+  </si>
+  <si>
+    <t>(03) 9435 9478</t>
+  </si>
+  <si>
+    <t>https://healthwiseosteopathy.com.au/</t>
+  </si>
+  <si>
+    <t>At Healthwise osteopathy we aim to provide the highest quality osteopathic treatment in a friendly, professional environment._x000D_
+We accept all major credit cards and private health insurance can be claimed on the spot. We also are happy to treat TAC, DVA, EPC and Workcover patients</t>
+  </si>
+  <si>
+    <t>Healthwise Osteopathy</t>
+  </si>
+  <si>
+    <t>australiananimaloralcare@gmail.com</t>
+  </si>
+  <si>
+    <t>Unit 1/31 Brisbane St, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>0435 875 960</t>
+  </si>
+  <si>
+    <t>https://www.australiananimaloralcare.com/</t>
+  </si>
+  <si>
+    <t>Natural Pet Dental Cleaning without Anesthesia or Drugs._x000D_
+Home Visits Available and our Locations_x000D_
+Does your Dog need a Dental Clean?_x000D_
+Start professional dental cleaning when your Dog is 18 months old to prevent the need for Anesthesia Dentals in the future.</t>
+  </si>
+  <si>
+    <t>Australian Animal Oral Care</t>
+  </si>
+  <si>
+    <t>reception@vnlabs.com.au</t>
+  </si>
+  <si>
+    <t>287 Bolton St, Eltham VIC 3094</t>
+  </si>
+  <si>
+    <t>8 am-5 pm</t>
+  </si>
+  <si>
+    <t>(03) 9439 7037</t>
+  </si>
+  <si>
+    <t>https://www.vnlabs.com.au/</t>
+  </si>
+  <si>
+    <t>Van Noorden Dental Laboratories</t>
+  </si>
+  <si>
+    <t>FDEltham@bigpond.com</t>
+  </si>
+  <si>
+    <t>Shop 24/18 Arthur Street, Eltham Mall, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>(03) 9439 6375</t>
+  </si>
+  <si>
+    <t>http://www.thefds.com.au/</t>
+  </si>
+  <si>
+    <t>Serving the community since 1999._x000D_
+State of art modern facility._x000D_
+Advance clinic disinfection technologies to provide safest environment for receiving treatment_x000D_
+Tailored treatment planning and options provided._x000D_
+Payment plan options._x000D_
+Clinics available in Eltham and City.</t>
+  </si>
+  <si>
+    <t>Finesse Dentists</t>
+  </si>
+  <si>
+    <t>admin@montmorencydentists.com.au</t>
+  </si>
+  <si>
+    <t>28 Were St, Montmorency VIC 3094</t>
+  </si>
+  <si>
+    <t>(03) 9432 2388</t>
+  </si>
+  <si>
+    <t>http://www.montmorencydentists.com.au/</t>
+  </si>
+  <si>
+    <t>Were Street Dentists</t>
+  </si>
+  <si>
+    <t>info@bakaldental.com.au</t>
+  </si>
+  <si>
+    <t>433 Main Rd, Montmorency VIC 3094</t>
+  </si>
+  <si>
+    <t>(03) 9439 3866</t>
+  </si>
+  <si>
+    <t>http://www.bakaldental.com.au/</t>
+  </si>
+  <si>
+    <t>We are dedicated to providing you with the highest quality care in the most comfortable and friendly setting. We strive to offer you the very best treatment by employing the most advanced technology and techniques, and your overall health and well-being is our primary concern. Restoring my patients' smiles and self-confidence whilst creating a long-lasting relationship built on trust and care is my utmost goal."</t>
+  </si>
+  <si>
+    <t>Bakal Denture Clinic</t>
+  </si>
+  <si>
+    <t>admin@elthamfamilydental.com.au</t>
+  </si>
+  <si>
+    <t>Unit 1/23 Dudley St, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>(03) 9439 6517</t>
+  </si>
+  <si>
+    <t>http://www.elthamfamilydental.com.au/</t>
+  </si>
+  <si>
+    <t>Providing dental health services for the whole family. Emergency appointments are available.</t>
+  </si>
+  <si>
+    <t>Eltham Family Dental</t>
+  </si>
+  <si>
+    <t>realignmyotherapy@gmail.com</t>
+  </si>
+  <si>
+    <t>1 741Main Rd, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>8 am-7 pm</t>
+  </si>
+  <si>
+    <t>0433 169 883</t>
+  </si>
+  <si>
+    <t>http://strivemyotherapy.com.au/</t>
+  </si>
+  <si>
+    <t>Myotherapy and Remedial massage clinic</t>
+  </si>
+  <si>
+    <t>Strive Myotherapy &amp; Remedial Massage</t>
+  </si>
+  <si>
+    <t>ktdcchiro@gmail.com</t>
+  </si>
+  <si>
+    <t>122 Main Hurstbridge Rd, Diamond Creek VIC 3089</t>
+  </si>
+  <si>
+    <t>2-5 pm</t>
+  </si>
+  <si>
+    <t>(03) 9438 1412</t>
+  </si>
+  <si>
+    <t>https://diamondcreekchiropractic.com.au/</t>
+  </si>
+  <si>
+    <t>Welcome to Diamond Creek Chiropractic clinic. We have been operating in Diamond Creek for over 25 years and offer friendly, professional services for Chiropractic care._x000D_
+We are committed to helping you improve your overall health and wellbeing, thereby assisting you to get the most out of life._x000D_
+As well as Chiropractic care we have practitioners of Chinese Medicine, Acupuncture, Myotherapy, Podiatry and Hypnotherapy all here for you under the one roof._x000D_
+All types of conditions are confidently managed by our chiropractic team including low back pain, hip pain, neck pain, headaches, upper back pain, shoulder pain, elbow/wrist pain, knee pain, foot and ankle pain.</t>
+  </si>
+  <si>
+    <t>Diamond Creek Chiropractic</t>
+  </si>
+  <si>
+    <t>info@shambrookchiropractic.com.au</t>
+  </si>
+  <si>
+    <t>Shop 8/10-18 Arthur St, Eltham VIC 3095</t>
+  </si>
+  <si>
+    <t>9:30 am-7 pm</t>
+  </si>
+  <si>
+    <t>(03) 9432 8562</t>
+  </si>
+  <si>
+    <t>http://www.shambrookchiropractic.com.au/?utm_source=GBP&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>Shambrook Chiropractic, esteemed in Greensborough since 1999 and now located in the Eltham Town Mall. Dr Joel is dedicated to alleviating pain, enhancing mobility, and promoting healthly life choices. The clinic has become a trusted pillar within the community, committed to providing personalized care with a blend of expertise, compassion, and a range of gentle to more "hands on" chiropractic and massage techniques combined with corrective exercises to cater to each person's presenting complaint to personal preference._x000D_
+From elite to junior athletes, from tradies to desk workers. And for those who just want to be able to get things done like they used to and want the ability to do the things that give them joy. We have options for you.</t>
+  </si>
+  <si>
+    <t>Shambrook Chiropractic</t>
+  </si>
+  <si>
+    <t>contact@melissagonella.com</t>
+  </si>
+  <si>
+    <t>4/57a Buena Vista Dr, Montmorency VIC 3094</t>
+  </si>
+  <si>
+    <t>9 am-3 pm</t>
+  </si>
+  <si>
+    <t>0418 990 619</t>
+  </si>
+  <si>
+    <t>http://www.melissagonella.com/</t>
+  </si>
+  <si>
+    <t>Neuro-Training Kinesiology is a natural healing modality which aligns your body's innate capacity to heal and recuperate._x000D_
+The service offers an empowering approach to health and well-being which enables blockages of any type to be shifted easily and effectively._x000D_
+Melissa's main areas of interest are issues relating to hormone balance, stress, energy, recuperation, detoxification and general well-being.</t>
+  </si>
+  <si>
+    <t>Melissa Gonella Kinesiology</t>
+  </si>
+  <si>
+    <t>info@dvphysio.com.au</t>
+  </si>
+  <si>
+    <t>97a Main Rd, Lower Plenty VIC 3093</t>
+  </si>
+  <si>
+    <t>(03) 9439 7671</t>
+  </si>
+  <si>
+    <t>https://www.dvphysio.com.au/?utm_source=Gmb&amp;utm_medium=Gmb&amp;utm_campaign=Gmb</t>
+  </si>
+  <si>
+    <t>Diamond Valley Physiotherapy servicing Eltham, Greensbough, Bundoora, Diamond Creek and Heidelberg area. We provide expert treatment and outcomes for all spinal and joint problems._x000D_
+One-on-one treatment using advanced technical equipment such as ultrasound, electrotherapy, laser and shockwave therapy._x000D_
+We also provide dry needling/acupuncture for the treatment of headaches and migraines, chronic neck and low back pain._x000D_
+Cupping can be used to removing toxins and waste from the body to help with healing and recovery.</t>
+  </si>
+  <si>
+    <t>Diamond Valley Physiotherapy - call for FREE consultation | Massage | Cupping | Acupuncture | Greensborough | Eltham</t>
+  </si>
+  <si>
+    <t>fitexpressaust@gmail.com</t>
+  </si>
+  <si>
+    <t>266 Bolton St, Eltham VIC 3095, Australia</t>
+  </si>
+  <si>
+    <t>8:30 am-8:30 pm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.fitexpressau.com/</t>
+  </si>
+  <si>
+    <t>Will's gym he goes to most days. He loves it but thinks the website needs a major refresh and we'd love to do it! Make sure to mention the branding refresh too because their current branding is very green and not very nice. (don't say that obviously. This isn't a google description, I added this manually.</t>
+  </si>
+  <si>
+    <t>Fit Express</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,16 +546,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,15 +837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -598,7 +909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -630,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -662,7 +973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -691,7 +1002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -726,7 +1037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -761,7 +1072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -796,7 +1107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -831,7 +1142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -863,7 +1174,521 @@
         <v>59</v>
       </c>
     </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>3.6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{F276A944-9875-4BE8-90E0-8E85ADB79A6D}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{B4F175D0-F3C4-4A6B-933B-135833CFBFBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>